--- a/uploads/format.xlsx
+++ b/uploads/format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0026B4BA-A8A9-4BB2-B813-35343F5C119F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B4745-64C8-471A-BA81-FF8A3A9A34E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{84474777-2870-401A-84F0-DE86F893A78A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -85,6 +85,45 @@
   </si>
   <si>
     <t>Mana Yg salah</t>
+  </si>
+  <si>
+    <t>Mana mana</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>HGH</t>
+  </si>
+  <si>
+    <t>JSD</t>
+  </si>
+  <si>
+    <t>SHA</t>
+  </si>
+  <si>
+    <t>AUE</t>
+  </si>
+  <si>
+    <t>Bener</t>
+  </si>
+  <si>
+    <t>Salah</t>
+  </si>
+  <si>
+    <t>Apa Yg salah</t>
+  </si>
+  <si>
+    <t>Apa Yg benar</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>xxxxyyyy</t>
   </si>
 </sst>
 </file>
@@ -120,16 +159,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90736780-CA6B-4F35-B015-72FE3D5018B3}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,10 +520,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -492,8 +534,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -505,8 +547,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
@@ -515,8 +557,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -525,8 +567,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
@@ -535,69 +577,191 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>123</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>123123</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>12321331244</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>115515</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>23123123</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>